--- a/AZCafe/doc/残作業.xlsx
+++ b/AZCafe/doc/残作業.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>ログインフィルター</t>
     <phoneticPr fontId="1"/>
@@ -157,6 +157,22 @@
   </si>
   <si>
     <t>ダイアログ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問題の画面　小さくするとデザインが崩れる</t>
+    <rPh sb="0" eb="2">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>クズ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -215,9 +231,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -522,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D13"/>
+  <dimension ref="B2:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -573,7 +590,9 @@
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D7" t="s">
         <v>13</v>
       </c>
@@ -594,7 +613,9 @@
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D10" t="s">
         <v>14</v>
       </c>
@@ -603,7 +624,9 @@
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D11" t="s">
         <v>14</v>
       </c>
@@ -621,6 +644,12 @@
         <v>11</v>
       </c>
       <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/AZCafe/doc/残作業.xlsx
+++ b/AZCafe/doc/残作業.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>ログインフィルター</t>
     <phoneticPr fontId="1"/>
@@ -172,6 +172,13 @@
     </rPh>
     <rPh sb="17" eb="18">
       <t>クズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドキュメント整理</t>
+    <rPh sb="6" eb="8">
+      <t>セイリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -539,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D14"/>
+  <dimension ref="B2:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -607,7 +614,9 @@
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
@@ -643,13 +652,21 @@
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/AZCafe/doc/残作業.xlsx
+++ b/AZCafe/doc/残作業.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>ログインフィルター</t>
     <phoneticPr fontId="1"/>
@@ -549,7 +549,7 @@
   <dimension ref="B2:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -585,7 +585,9 @@
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">

--- a/AZCafe/doc/残作業.xlsx
+++ b/AZCafe/doc/残作業.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>ログインフィルター</t>
     <phoneticPr fontId="1"/>
@@ -179,6 +179,20 @@
     <t>ドキュメント整理</t>
     <rPh sb="6" eb="8">
       <t>セイリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバーにアップしてのテスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>称号（スキルマップでの称号）</t>
+    <rPh sb="0" eb="2">
+      <t>ショウゴウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショウゴウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -546,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D15"/>
+  <dimension ref="B2:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -670,6 +684,18 @@
       </c>
       <c r="C15" s="1"/>
     </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
